--- a/최종 산출물/5조_Test Case_Test Result.xlsx
+++ b/최종 산출물/5조_Test Case_Test Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1567D-8590-4BD7-8D9A-EFD18CA70A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAF568-081E-4BA0-96FA-F09A91BD987D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -29,99 +29,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="240">
   <si>
     <t>Basic Flow #</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FormClass. Action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Control Class.Operation( )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Entity Class.Operation( )</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Scenario ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Use Case</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Alternative Flow#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Test CaseID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Input Data Set</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Real Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PASS/FAIL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FAIL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Schedule 생성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_nn</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 조회 및 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이전루트 및 
 구매내역 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -171,7 +171,7 @@
       <t>.onCreate()-&gt;
 PreviousPathSpecificBoundary.finishPPBrand2()</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -201,7 +201,7 @@
 MypageController.finishPPBrand()
 &lt;-MypageController.finishPPBrand2 (callback2)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,31 +229,31 @@
 User.findppBrandDB()
 &lt;-User.finishPPBrand (callback)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>-&gt;' 진행방향 / '&lt;-' 콜백</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishPersonalInfo(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishPersonalInfo()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Mypage.Controller.finishPersonalInfo2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ChangePersonalInfo.finishPersonalInfo2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,7 +278,7 @@
       </rPr>
       <t>.onClickComplete(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -303,7 +303,7 @@
       </rPr>
       <t>r.personalchange(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,830 +328,846 @@
       </rPr>
       <t>.changePersonalInfo(Usersex,UserAge)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호 및 비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPReferBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPreferRBands()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>User.findPrefer()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getPrefer(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPrfer()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MypageController.getPrefer2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getPrefer2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.onCreat()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPreferBrands()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>User.findNonPrefer()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getNonPrefer(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPrefer()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MyPageController.getNonPrefer2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getNonPrefer2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.onClickListener(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.deleteBrand(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>User.deleteSelectedBrand(selectedBrand)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishDeleteBrands(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishDeleteBrand()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.finishDeleteBrand2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 삭제</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onCreate()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getCatBrands(selectedCategory)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Category.findBrands(selectedCategory)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Category.finishFindBrands(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishFindBRands()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishDeleteBrand2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishFindBrand2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishFindBrand2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishadd(callback)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishadd()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishadd2(callback2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishadd2()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택된 제품군의 브랜드 리스트업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onClickListener(selectedBRand,preferNon)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.addBrand(selectedBrand,preferNon)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>User.addBrandUser(selectedBrand,preferNon)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 및 로그인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 LoginController.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 User.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성 (DB에저장)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MainActivity.onClickRegister()-&gt;Register.onCreate()-&gt;PreferNonpreferBrandSelectBoundary.onClickFinishRegister()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">동선따라 쇼핑하기 </t>
   </si>
   <si>
     <t>피드백</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Brand()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- BrandAdapter(Brand)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkBought(id, brandName)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkNotBought(id, brandName)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- FeedbackAdapter(Brand)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActicity.checkRating(id, grade, brandName)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 평점 입력 (DB에 저장)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>구매 비구매 입력 (DB에 저장)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>쇼핑 동선 짜기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 추천 받기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecommendBrand.onCreate()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>쇼핑 동선 짜기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>추천 브랜드 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_04</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_06</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택완료 메시지 출력, 추천 브랜드 리스트로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 미선택 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택완료 메시지 출력, 동선 선택 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 미선택 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동선 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_07</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택한 동선</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>path1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>path2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_04</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>개인 정보 입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>나이</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abc123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>여</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 선택 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>필수 정보 미입력 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_05</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택한 카테고리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c1, c2, c4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박진근</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>현재 위치 입력 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 수 미충족 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>마이 페이지 조회 및 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동선 따라 쇼핑하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>구매한 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>구매하지 않은 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>전체 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>c3, c5, c9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>동선 따라 쇼핑하기 및 피드백</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF2.1 카테고리 미선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF2.3 선호 브랜드 중복</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF2.2 브랜드 선택 없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF2.4 브랜드 정보 접근 실패</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF1.1 필수 정보 미입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF1.2 브랜드 수 미충족</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>피드백 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF3.1 구매여부 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이미지 버튼을 다시 눌러 수정, 피드백 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_06</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_07</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_08</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_09</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>만족도 점수를 매긴 브랜드 수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF3.2 구매여부 미표시</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>구매여부 미표시 브랜드는 구매하지 않은 것으로 처리, 피드백 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>어플리케이션 종료(경로 DB에 저장)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_18</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF3.3 피드백 도중 종료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>어플리케이션 종료(경로 DB에 저장되지 않음)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF3.4 피드백할 브랜드가 남아있음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>피드백할 브랜드가 남았다는 메시지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_18</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택한 메뉴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>개인 정보 수정 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이전 루트 및 구매 내역 조회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>이전 루트 및 구매 내역 조회 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 조회 및 수정 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_19</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>남</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>path1 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>path2 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>접근 실패 브랜드가 제외된 path1 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>성별, 연령 정보 변경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF4.1 정보 미입력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>기존 개인정보 유지</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>루트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>path1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선택한 루트의 방문 브랜드, 구매 브랜드, 만족도 리스트업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF4.2 경로 없음</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>방문 정보가 없다는 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_27</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 추가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 추가, 선호도 변화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_28</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 추가, 선호도 변화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_29</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SC_24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>최소 3개의 선호/비선호 브랜드가 있어야 한다는 메시지 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AF4.3 최소 선호/비선호 브랜드 개수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TC_30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 선택</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CategorySelectBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>추천 브랜드 리스트업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathSelectBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
   </si>
   <si>
     <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendBrand.onCreate()-&gt;readData(callback)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathSelectBoundary.onCreate()-&gt;readData(callback)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path.addFirst(String input)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathFindingController.PathFindingController()-&gt;PathFindingController.brandfloor(), firstPathFinder(), FourthPathFInder(), =&gt; shortestPathFinder() =&gt; findClosestSpot(X,Y, leftList)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;sortByValue()</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1734,7 +1750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1746,11 +1762,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1760,20 +1776,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1799,7 +1815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1811,7 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1823,7 +1839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,28 +1848,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1861,7 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1870,6 +1886,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,113 +1979,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2269,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2337,11 +2356,11 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="78"/>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="71" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2356,9 +2375,9 @@
       <c r="H5" s="41"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="79"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
         <v>29</v>
@@ -2369,9 +2388,9 @@
       <c r="H6" s="42"/>
     </row>
     <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="80"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="18" t="s">
         <v>31</v>
       </c>
@@ -2383,10 +2402,10 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -2398,15 +2417,15 @@
       <c r="G8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="77" t="s">
         <v>44</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="82"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>40</v>
@@ -2414,12 +2433,12 @@
       <c r="G9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="21"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="83"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="19" t="s">
         <v>42</v>
       </c>
@@ -2427,14 +2446,14 @@
         <v>41</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="86"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="2"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="22" t="s">
@@ -2446,14 +2465,14 @@
       <c r="G11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="77" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>49</v>
@@ -2461,12 +2480,12 @@
       <c r="G12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="85"/>
+      <c r="H12" s="78"/>
     </row>
     <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="83"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2474,14 +2493,14 @@
         <v>50</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="86"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="2"/>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="22" t="s">
@@ -2493,14 +2512,14 @@
       <c r="G14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="77" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>57</v>
@@ -2508,12 +2527,12 @@
       <c r="G15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="19" t="s">
         <v>58</v>
       </c>
@@ -2521,13 +2540,13 @@
         <v>65</v>
       </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="86"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="26" t="s">
@@ -2539,13 +2558,13 @@
       <c r="G17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="77" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="67"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="9"/>
       <c r="F18" s="24" t="s">
         <v>64</v>
@@ -2553,11 +2572,11 @@
       <c r="G18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="85"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="68"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="28" t="s">
         <v>67</v>
       </c>
@@ -2565,13 +2584,13 @@
         <v>66</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="86"/>
+      <c r="H19" s="79"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -2583,13 +2602,13 @@
       <c r="G20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="84" t="s">
+      <c r="H20" s="77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="67"/>
-      <c r="D21" s="82"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="9"/>
       <c r="F21" s="24" t="s">
         <v>69</v>
@@ -2597,11 +2616,11 @@
       <c r="G21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="85"/>
+      <c r="H21" s="78"/>
     </row>
     <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="68"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="28" t="s">
         <v>71</v>
       </c>
@@ -2609,7 +2628,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="86"/>
+      <c r="H22" s="79"/>
     </row>
     <row r="23" spans="2:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10"/>
@@ -2634,117 +2653,121 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="63" t="s">
-        <v>232</v>
+      <c r="D24" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="91" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="10"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="64"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="65"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="93"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="10"/>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="63" t="s">
-        <v>234</v>
+      <c r="E27" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="94"/>
+      <c r="H27" s="91" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="10"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="64"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="92"/>
     </row>
     <row r="29" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="10"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="65"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="93"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="10"/>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="63" t="s">
-        <v>114</v>
+      <c r="D30" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="91" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="10"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="64"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="92"/>
     </row>
     <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="10"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="65"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="93"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="10"/>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="71" t="s">
         <v>85</v>
       </c>
       <c r="E33" s="51" t="s">
@@ -2754,14 +2777,14 @@
       <c r="G33" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="63" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="10"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="82"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="52"/>
       <c r="F34" s="24" t="s">
         <v>91</v>
@@ -2769,25 +2792,25 @@
       <c r="G34" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="H34" s="88"/>
+      <c r="H34" s="64"/>
     </row>
     <row r="35" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="10"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="83"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="52"/>
       <c r="F35" s="24" t="s">
         <v>92</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="89"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="10"/>
-      <c r="C36" s="92" t="s">
+      <c r="C36" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="71" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="55" t="s">
@@ -2797,13 +2820,13 @@
       <c r="G36" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="90" t="s">
+      <c r="H36" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="94"/>
-      <c r="D37" s="83"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="53"/>
       <c r="F37" s="58" t="s">
         <v>94</v>
@@ -2811,10 +2834,10 @@
       <c r="G37" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="91"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="76"/>
+      <c r="C38" s="83"/>
       <c r="D38" s="59"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2822,7 +2845,7 @@
       <c r="H38" s="59"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="77"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="59"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2830,7 +2853,7 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="77"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="59"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2843,35 +2866,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
@@ -2886,8 +2880,37 @@
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2897,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF654078-5CCB-4471-828A-B938EED8C07B}">
   <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2955,25 +2978,25 @@
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
@@ -2987,35 +3010,35 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>1234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
@@ -3032,66 +3055,66 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2">
         <v>1234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2">
         <v>1234</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -3103,38 +3126,38 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2">
         <v>1234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
@@ -3146,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2"/>
@@ -3384,7 +3407,7 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3450,13 +3473,13 @@
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3464,29 +3487,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
@@ -3495,90 +3518,90 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
@@ -3587,120 +3610,120 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -3818,7 +3841,7 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3884,16 +3907,16 @@
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3901,16 +3924,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2">
@@ -3923,10 +3946,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -3936,16 +3959,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -3957,29 +3980,29 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -3991,29 +4014,29 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -4025,23 +4048,23 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>86</v>
@@ -4060,26 +4083,26 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -4094,26 +4117,26 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -4128,7 +4151,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
@@ -4268,7 +4291,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4335,22 +4358,22 @@
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
@@ -4358,425 +4381,425 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K8" s="2">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H13" s="2">
         <v>-1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2">
         <v>-1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
@@ -4905,7 +4928,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/최종 산출물/5조_Test Case_Test Result.xlsx
+++ b/최종 산출물/5조_Test Case_Test Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jin_k\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAAF568-081E-4BA0-96FA-F09A91BD987D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5CD24-1C77-47C8-A77C-F428369B9118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="1632" windowWidth="16812" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -587,6 +587,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>RecommendBrand.onCreate()-&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>쇼핑 동선 짜기</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1123,6 +1131,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>PathSelectBoundary.onCreate()-&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
   </si>
   <si>
@@ -1130,23 +1142,37 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>RecommendBrand.onCreate()-&gt;readData(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathSelectBoundary.onCreate()-&gt;readData(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path.addFirst(String input)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PathFindingController.PathFindingController()-&gt;PathFindingController.brandfloor(), firstPathFinder(), FourthPathFInder(), =&gt; shortestPathFinder() =&gt; findClosestSpot(X,Y, leftList)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;sortByValue()</t>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>athfindingController.firstPathFinder()-&gt;</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath.addFirst(), Path.addBrandLast()</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2288,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2657,15 +2683,15 @@
         <v>97</v>
       </c>
       <c r="D24" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="E24" s="102" t="s">
+        <v>233</v>
       </c>
       <c r="F24" s="94"/>
       <c r="G24" s="94"/>
       <c r="H24" s="91" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
@@ -2694,15 +2720,15 @@
       <c r="D27" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>239</v>
+      <c r="E27" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="G27" s="94"/>
       <c r="H27" s="91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
@@ -2729,19 +2755,19 @@
         <v>97</v>
       </c>
       <c r="D30" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="102" t="s">
-        <v>236</v>
+        <v>114</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>235</v>
       </c>
       <c r="F30" s="102" t="s">
         <v>238</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H30" s="91" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
@@ -2921,7 +2947,7 @@
   <dimension ref="A2:O20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2978,25 +3004,25 @@
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M3" s="96"/>
       <c r="N3" s="96"/>
@@ -3010,35 +3036,35 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2">
         <v>1234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
@@ -3055,66 +3081,66 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2">
         <v>1234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2">
         <v>1234</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -3126,38 +3152,38 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2">
         <v>1234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
@@ -3169,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2"/>
@@ -3473,13 +3499,13 @@
       <c r="D5" s="96"/>
       <c r="E5" s="96"/>
       <c r="F5" s="61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3487,29 +3513,29 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
@@ -3518,90 +3544,90 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
@@ -3610,120 +3636,120 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
@@ -3907,16 +3933,16 @@
       <c r="D2" s="96"/>
       <c r="E2" s="96"/>
       <c r="F2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3924,16 +3950,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2">
@@ -3946,10 +3972,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="3"/>
@@ -3959,16 +3985,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -3980,29 +4006,29 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -4014,29 +4040,29 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -4048,23 +4074,23 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>86</v>
@@ -4083,26 +4109,26 @@
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -4117,26 +4143,26 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -4151,7 +4177,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
@@ -4358,22 +4384,22 @@
       <c r="D3" s="96"/>
       <c r="E3" s="96"/>
       <c r="F3" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="L3" s="96"/>
       <c r="M3" s="96"/>
@@ -4381,425 +4407,425 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K8" s="2">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H13" s="2">
         <v>-1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I14" s="2">
         <v>-1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>

--- a/최종 산출물/5조_Test Case_Test Result.xlsx
+++ b/최종 산출물/5조_Test Case_Test Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이미정\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hye Min\Documents\GitHub\pumasi\최종 산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D5CD24-1C77-47C8-A77C-F428369B9118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FC3E7-045F-4DA5-8EFA-4AEF938B26CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1632" windowWidth="16812" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="1" r:id="rId1"/>
@@ -29,99 +29,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="264">
   <si>
     <t>Basic Flow #</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FormClass. Action</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Control Class.Operation( )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Entity Class.Operation( )</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Scenario ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Use Case</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Alternative Flow#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Test CaseID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Input Data Set</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Expected Result</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Real Result</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PASS/FAIL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_01</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_02</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAIL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PASS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Basic Flow</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_nn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>마이페이지 조회 및 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이전루트 및 
 구매내역 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -171,7 +163,7 @@
       <t>.onCreate()-&gt;
 PreviousPathSpecificBoundary.finishPPBrand2()</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -201,7 +193,7 @@
 MypageController.finishPPBrand()
 &lt;-MypageController.finishPPBrand2 (callback2)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,31 +221,31 @@
 User.findppBrandDB()
 &lt;-User.finishPPBrand (callback)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>-&gt;' 진행방향 / '&lt;-' 콜백</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>개인정보 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishPersonalInfo(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishPersonalInfo()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Mypage.Controller.finishPersonalInfo2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChangePersonalInfo.finishPersonalInfo2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -278,7 +270,7 @@
       </rPr>
       <t>.onClickComplete(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -303,7 +295,7 @@
       </rPr>
       <t>r.personalchange(userSex,userAge)-&gt;</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,818 +320,810 @@
       </rPr>
       <t>.changePersonalInfo(Usersex,UserAge)</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호 및 비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPReferBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPreferRBands()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>User.findPrefer()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getPrefer(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getPrfer()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MypageController.getPrefer2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getPrefer2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.onCreat()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPreferBrands()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>User.findNonPrefer()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- User.getNonPrefer(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getNonPrefer()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- MyPageController.getNonPrefer2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPreferBoundary.getNonPrefer2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.onClickListener(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.deleteBrand(selectedBrand)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>User.deleteSelectedBrand(selectedBrand)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishDeleteBrands(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishDeleteBrand()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PreferNonPrefer.finishDeleteBrand2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 삭제</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onCreate()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.getCatBrands(selectedCategory)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Category.findBrands(selectedCategory)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- Category.finishFindBrands(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishFindBRands()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishDeleteBrand2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishFindBrand2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishFindBrand2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-User.finishadd(callback)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.finishadd()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;-MyPageController.finishadd2(callback2)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.finishadd2()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택된 제품군의 브랜드 리스트업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AddPreferNonPrefer.onClickListener(selectedBRand,preferNon)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MyPageController.addBrand(selectedBrand,preferNon)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>User.addBrandUser(selectedBrand,preferNon)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택된 브랜드 선호/비선호 리스트에 추가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>회원가입 및 로그인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 LoginController.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 User.register(name,id,pw,sex,age,preferbrands,nonpreferbrands)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>새로운 유저 생성 (DB에저장)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MainActivity.onClickRegister()-&gt;Register.onCreate()-&gt;PreferNonpreferBrandSelectBoundary.onClickFinishRegister()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
   </si>
   <si>
     <t>동선따라 쇼핑하기 및 피드백</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">동선따라 쇼핑하기 </t>
   </si>
   <si>
     <t>피드백</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.onCreate() -&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Brand()</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- BrandAdapter(Brand)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkBought(id, brandName)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ShoppingActivity.checkNotBought(id, brandName)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>&lt;- FeedbackAdapter(Brand)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FeedbackActicity.checkRating(id, grade, brandName)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 평점 입력 (DB에 저장)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매 비구매 입력 (DB에 저장)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>쇼핑 동선 짜기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 추천 받기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RecommendBrand.onCreate()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>RecommendBrandController.pearsonCheck(Id, AllUserMap)=&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>쇼핑 동선 짜기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>추천 브랜드 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택완료 메시지 출력, 추천 브랜드 리스트로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 미선택 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택완료 메시지 출력, 동선 선택 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 미선택 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>동선 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택한 동선</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>path1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>path2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>개인 정보 입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>나이</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>성별</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>abc123</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>여</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 선택 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>필수 정보 미입력 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택한 카테고리</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>c1, c2, c4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진근</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 위치 입력 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브랜드 수 미충족 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_03</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>마이 페이지 조회 및 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>동선 따라 쇼핑하기</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매한 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매하지 않은 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>전체 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>c3, c5, c9</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>동선 따라 쇼핑하기 및 피드백</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF2.1 카테고리 미선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF2.3 선호 브랜드 중복</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF2.2 브랜드 선택 없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF2.4 브랜드 정보 접근 실패</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF1.1 필수 정보 미입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF1.2 브랜드 수 미충족</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>피드백 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF3.1 구매여부 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이미지 버튼을 다시 눌러 수정, 피드백 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_06</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_07</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_08</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_09</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>만족도 점수를 매긴 브랜드 수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF3.2 구매여부 미표시</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>구매여부 미표시 브랜드는 구매하지 않은 것으로 처리, 피드백 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>어플리케이션 종료(경로 DB에 저장)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF3.3 피드백 도중 종료</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>어플리케이션 종료(경로 DB에 저장되지 않음)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF3.4 피드백할 브랜드가 남아있음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>피드백할 브랜드가 남았다는 메시지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>메뉴 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택한 메뉴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>개인 정보 수정 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이전 루트 및 구매 내역 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이전 루트 및 구매 내역 조회 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 조회 및 수정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호/비선호 브랜드 조회 및 수정 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_19</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>남</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>path1 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>path2 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>접근 실패 브랜드가 제외된 path1 선택, 쇼핑 페이지로 이동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>성별, 연령 정보 변경</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF4.1 정보 미입력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>기존 개인정보 유지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>루트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>path1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선택한 루트의 방문 브랜드, 구매 브랜드, 만족도 리스트업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_26</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF4.2 경로 없음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>방문 정보가 없다는 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 추가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 추가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비선호 브랜드 추가, 선호도 변화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선호 브랜드 추가, 선호도 변화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_29</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>SC_24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>최소 3개의 선호/비선호 브랜드가 있어야 한다는 메시지 출력</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>AF4.3 최소 선호/비선호 브랜드 개수</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>TC_30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>카테고리 선택</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CategorySelectBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>추천 브랜드 리스트업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PathSelectBoundary.onCreate()-&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
   </si>
   <si>
     <t>초기 개인 정보 설정 및 선호, 비선호 브랜드 설정</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1156,7 +1140,7 @@
       </rPr>
       <t>athfindingController.firstPathFinder()-&gt;</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1173,19 +1157,124 @@
       </rPr>
       <t>ath.addFirst(), Path.addBrandLast()</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 수 미충족 메시지 출력</t>
+  </si>
+  <si>
+    <t>필수 정보 미입력 메시지 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 완료</t>
+  </si>
+  <si>
+    <t>회원가입 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택완료 메시지 출력, 추천 브랜드 리스트로 이동</t>
+  </si>
+  <si>
+    <t>카테고리 미선택 메시지 출력</t>
+  </si>
+  <si>
+    <t>선택완료 메시지 출력, 동선 선택 페이지로 이동</t>
+  </si>
+  <si>
+    <t>브랜드 미선택 메시지 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>path1 선택, 쇼핑 페이지로 이동</t>
+  </si>
+  <si>
+    <t>앱 멈춤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 실패 브랜드 없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS/FAIL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매여부를 묻는 브랜드가 세 개만 리스트업됨</t>
+  </si>
+  <si>
+    <t>구매여부를 묻는 브랜드가 세 개만 리스트업됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 정보 수정 페이지로 이동</t>
+  </si>
+  <si>
+    <t>이전 루트 및 구매 내역 조회 페이지로 이동</t>
+  </si>
+  <si>
+    <t>선호/비선호 브랜드 조회 및 수정 페이지로 이동</t>
+  </si>
+  <si>
+    <t>메시지 출력 안됨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별, 연령 정보 변경</t>
+  </si>
+  <si>
+    <t>기본값(남성 10대)로 개인정보 변경</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 루트의 방문 브랜드, 구매 브랜드, 만족도 리스트업</t>
+  </si>
+  <si>
+    <t>비선호 브랜드 추가, 선호도 변화</t>
+  </si>
+  <si>
+    <t>선호 브랜드 추가, 선호도 변화</t>
+  </si>
+  <si>
+    <t>최소 3개의 선호/비선호 브랜드가 있어야 한다는 메시지 출력</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1788,11 +1877,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1802,20 +1891,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1841,7 +1930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1853,7 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1865,7 +1954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1874,28 +1963,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1903,7 +1992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1912,6 +2001,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1936,78 +2100,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,9 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2314,27 +2403,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="30.19921875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="35" customWidth="1"/>
     <col min="5" max="5" width="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
-    <col min="8" max="8" width="31.69921875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="31.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2431,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>1</v>
@@ -2354,544 +2443,573 @@
         <v>3</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="105" thickBot="1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="99.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="79"/>
+      <c r="C5" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="80"/>
-      <c r="C5" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>27</v>
-      </c>
       <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="81"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="72"/>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="81"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="82"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="43"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
-      <c r="C8" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="71" t="s">
+      <c r="C8" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>44</v>
+      <c r="H8" s="85" t="s">
+        <v>42</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="86"/>
+    </row>
+    <row r="10" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="78"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="21"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="79"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>35</v>
+      <c r="C11" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="77" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H11" s="85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="72"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="86"/>
+    </row>
+    <row r="13" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="F13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="2"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="87"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H14" s="85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="2"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="79"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C17" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C18" s="75"/>
-      <c r="D18" s="72"/>
+      <c r="H17" s="85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="67"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="9"/>
       <c r="F18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="68"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="76"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="79"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C20" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>35</v>
+      <c r="H19" s="87"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="H20" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C21" s="75"/>
-      <c r="D21" s="72"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="67"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="9"/>
       <c r="F21" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="86"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="68"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="F22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="76"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>70</v>
-      </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="79"/>
-    </row>
-    <row r="23" spans="2:8" ht="87.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="87"/>
+    </row>
+    <row r="23" spans="2:8" ht="83.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="47" t="s">
+      <c r="H23" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="49" t="s">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="10"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="76"/>
+      <c r="H27" s="63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="10"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="65"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="65"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="93" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="10"/>
-      <c r="C24" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="92"/>
-    </row>
-    <row r="26" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="C27" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="94"/>
-      <c r="H27" s="91" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="10"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="92"/>
-    </row>
-    <row r="29" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="93"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="10"/>
-      <c r="C30" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="102" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="10"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="92"/>
-    </row>
-    <row r="32" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="93"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" s="10"/>
-      <c r="C33" s="68" t="s">
+      <c r="D33" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="71" t="s">
-        <v>85</v>
-      </c>
       <c r="E33" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="52"/>
       <c r="F34" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G34" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="H34" s="64"/>
-    </row>
-    <row r="35" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="H34" s="89"/>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="10"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="52"/>
       <c r="F35" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="65"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H35" s="90"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="71" t="s">
-        <v>86</v>
-      </c>
       <c r="E36" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="57"/>
       <c r="G36" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C37" s="70"/>
-      <c r="D37" s="73"/>
+        <v>87</v>
+      </c>
+      <c r="H36" s="91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="95"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="53"/>
       <c r="F37" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G37" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C38" s="83"/>
+        <v>91</v>
+      </c>
+      <c r="H37" s="92"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="77"/>
       <c r="D38" s="59"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="60"/>
       <c r="H38" s="59"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C39" s="84"/>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="78"/>
       <c r="D39" s="59"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="60"/>
       <c r="H39" s="59"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C40" s="84"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="78"/>
       <c r="D40" s="59"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="60"/>
       <c r="H40" s="59"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C41" s="45"/>
       <c r="D41" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="D30:D32"/>
@@ -2906,37 +3024,8 @@
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -2946,89 +3035,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF654078-5CCB-4471-828A-B938EED8C07B}">
   <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" customWidth="1"/>
-    <col min="12" max="12" width="17.3984375" customWidth="1"/>
-    <col min="13" max="13" width="49.796875" customWidth="1"/>
-    <col min="14" max="14" width="21.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="49.75" customWidth="1"/>
+    <col min="14" max="14" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="95" t="s">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="O2" s="96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3036,44 +3125,44 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>1234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4" s="2">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3081,66 +3170,70 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2">
         <v>1234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2">
         <v>1234</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="2">
         <v>20</v>
@@ -3152,38 +3245,42 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>242</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2">
         <v>1234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2">
         <v>20</v>
@@ -3195,18 +3292,24 @@
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3217,7 +3320,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -3234,7 +3337,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -3251,7 +3354,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -3268,7 +3371,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -3285,7 +3388,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -3302,7 +3405,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3319,7 +3422,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3336,7 +3439,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3353,7 +3456,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -3370,7 +3473,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3387,7 +3490,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3404,7 +3507,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3433,7 +3536,7 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3443,45 +3546,45 @@
   <dimension ref="A4:K21"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="25.5" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="51.19921875" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="51.25" customWidth="1"/>
+    <col min="10" max="10" width="40.625" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="95" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3492,269 +3595,297 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H10" s="2">
         <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>199</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -3767,7 +3898,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -3780,7 +3911,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -3793,7 +3924,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -3806,7 +3937,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -3819,7 +3950,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -3832,7 +3963,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -3845,7 +3976,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -3867,7 +3998,7 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3877,45 +4008,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E398411E-AD86-43C4-BBBA-D0FBDAAF6CC7}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="26.69921875" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="17.09765625" customWidth="1"/>
-    <col min="7" max="7" width="22.69921875" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" customWidth="1"/>
-    <col min="9" max="9" width="26.796875" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
-    <col min="11" max="11" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="52.375" customWidth="1"/>
+    <col min="11" max="11" width="45.375" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3926,112 +4058,120 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="96"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="2">
         <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -4040,32 +4180,36 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -4074,98 +4218,110 @@
         <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>173</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <v>5</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -4177,12 +4333,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -4196,7 +4356,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -4210,7 +4370,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -4224,7 +4384,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -4238,7 +4398,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -4252,7 +4412,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -4266,7 +4426,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -4280,7 +4440,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -4294,7 +4454,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -4317,7 +4477,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4326,511 +4486,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCD701B-C0F7-4519-83BB-8F4C21202B30}">
   <dimension ref="A2:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="28.69921875" customWidth="1"/>
-    <col min="8" max="8" width="16.8984375" customWidth="1"/>
-    <col min="9" max="9" width="16.59765625" customWidth="1"/>
-    <col min="12" max="12" width="49.796875" customWidth="1"/>
-    <col min="13" max="13" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="49.75" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="95" t="s">
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>215</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K8" s="2">
         <v>30</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="B9" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2">
         <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H13" s="2">
         <v>-1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I14" s="2">
         <v>-1</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
@@ -4846,7 +5051,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -4862,7 +5067,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -4878,7 +5083,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -4894,7 +5099,7 @@
       <c r="M18" s="3"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -4910,7 +5115,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
@@ -4926,7 +5131,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
@@ -4954,7 +5159,7 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>